--- a/data/ICAOPrefix.xlsx
+++ b/data/ICAOPrefix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\FuelCost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14816B-AC15-4408-ABCA-57C0C16207E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71332B-316C-43F6-80DB-7CEAE318F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4710" yWindow="1815" windowWidth="28800" windowHeight="15555" xr2:uid="{84504369-7A79-4CE5-B3C2-F56AC7F0264A}"/>
   </bookViews>
@@ -354,9 +354,6 @@
     <t>GC</t>
   </si>
   <si>
-    <t>Spain (Canary Islands)</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
@@ -1204,9 +1201,6 @@
     <t>SO</t>
   </si>
   <si>
-    <t>France (French Guiana)</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -1290,9 +1284,6 @@
     <t>TF</t>
   </si>
   <si>
-    <t>France (Guadeloupe, Martinique, Saint Barthélemy, Saint Martin)</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
@@ -1739,6 +1730,15 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Guadeloupe, Martinique, Saint Barthélemy, Saint Martin</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,25 +2119,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" t="s">
         <v>467</v>
       </c>
-      <c r="E1" t="s">
-        <v>470</v>
-      </c>
       <c r="F1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2148,19 +2148,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2171,19 +2171,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2194,19 +2194,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2217,42 +2217,42 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2263,19 +2263,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2286,19 +2286,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2309,19 +2309,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2332,19 +2332,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2355,19 +2355,19 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2378,19 +2378,19 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2401,19 +2401,19 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2424,19 +2424,19 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2447,19 +2447,19 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2470,19 +2470,19 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2493,22 +2493,22 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2516,160 +2516,160 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>456</v>
+      </c>
+      <c r="G20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" t="s">
-        <v>468</v>
-      </c>
-      <c r="F19" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" t="s">
-        <v>468</v>
-      </c>
-      <c r="F20" t="s">
-        <v>459</v>
-      </c>
-      <c r="G20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G24" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2677,22 +2677,22 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -2700,137 +2700,137 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C30" t="s">
-        <v>459</v>
-      </c>
-      <c r="D30" t="s">
-        <v>459</v>
-      </c>
-      <c r="E30" t="s">
-        <v>468</v>
-      </c>
-      <c r="F30" t="s">
-        <v>459</v>
-      </c>
-      <c r="G30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2838,19 +2838,19 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G32" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2861,19 +2861,19 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2884,19 +2884,19 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2907,19 +2907,19 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2930,19 +2930,19 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2953,19 +2953,19 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G37" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2976,19 +2976,19 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2999,19 +2999,19 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G39" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3022,19 +3022,19 @@
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3045,19 +3045,19 @@
         <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3068,19 +3068,19 @@
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3091,19 +3091,19 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3111,22 +3111,22 @@
         <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3137,19 +3137,19 @@
         <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G45" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3160,19 +3160,19 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3183,19 +3183,19 @@
         <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3206,19 +3206,19 @@
         <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3229,19 +3229,19 @@
         <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3252,19 +3252,19 @@
         <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3275,19 +3275,19 @@
         <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3298,19 +3298,19 @@
         <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3321,19 +3321,19 @@
         <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E53" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F53" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G53" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3344,19 +3344,19 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3367,19 +3367,19 @@
         <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3390,19 +3390,19 @@
         <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3413,597 +3413,597 @@
         <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D57" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E57" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G57" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C59" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E59" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G61" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G63" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G64" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G67" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G68" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G72" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G73" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G74" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G76" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G77" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C78" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D78" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E78" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F78" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="C79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G79" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C81" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D81" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E81" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F81" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G81" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D82" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G82" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>42</v>
       </c>
@@ -4011,45 +4011,45 @@
         <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D83" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E83" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G83" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D84" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E84" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G84" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
@@ -4057,22 +4057,22 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D85" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E85" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F85" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G85" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>56</v>
       </c>
@@ -4080,22 +4080,22 @@
         <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D86" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G86" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
@@ -4103,45 +4103,45 @@
         <v>46</v>
       </c>
       <c r="C87" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D87" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E87" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C88" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D88" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E88" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G88" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -4149,22 +4149,22 @@
         <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D89" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E89" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F89" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G89" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
@@ -4172,22 +4172,22 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E90" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G90" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>49</v>
       </c>
@@ -4195,206 +4195,206 @@
         <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D91" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E91" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G91" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E92" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G92" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C93" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D93" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E93" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F93" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G93" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C94" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D94" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E94" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F94" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G94" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C95" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D95" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E95" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F95" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G95" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C96" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D96" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E96" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F96" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G96" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E97" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G97" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C98" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D98" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E98" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F98" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G98" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C99" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D99" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G99" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>51</v>
       </c>
@@ -4402,3561 +4402,3561 @@
         <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D100" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E100" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F100" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G100" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D101" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E101" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F101" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G101" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D102" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C103" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D103" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E103" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F103" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G103" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D104" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D105" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="C106" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D106" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E106" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F106" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G106" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C107" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E107" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F107" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G107" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G108" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G109" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C110" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D110" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E110" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F110" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G110" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G112" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G115" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C116" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D116" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E116" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F116" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G116" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="C117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G117" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G118" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C119" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E119" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F119" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G119" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="C120" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D120" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E120" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F120" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G120" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C121" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D121" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E121" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F121" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G121" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G122" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C124" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D124" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E124" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G124" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G125" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C128" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D128" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E128" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F128" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G128" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C129" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D129" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E129" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F129" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G129" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="C131" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D131" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E131" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F131" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G131" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C133" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D133" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E133" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F133" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G133" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G134" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C135" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D135" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E135" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F135" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G135" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="C136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G136" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G137" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C139" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D139" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E139" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F139" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G139" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G140" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G141" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C142" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D142" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E142" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F142" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G142" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G143" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G144" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G146" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="C147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G147" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="C148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C150" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D150" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E150" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F150" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G150" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C152" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D152" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E152" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F152" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G152" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C153" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D153" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E153" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F153" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G153" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G154" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C156" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D156" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E156" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F156" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G156" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D157" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E157" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F157" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G157" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="C158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G159" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D160" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E160" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F160" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G160" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G161" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G162" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G163" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G164" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G165" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C167" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D167" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E167" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F167" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G167" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C168" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D168" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E168" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F168" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G168" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="C169" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D169" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E169" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F169" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G169" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C170" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E170" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F170" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G170" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G171" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G172" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C173" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D173" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F173" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G173" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G174" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C175" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D175" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E175" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F175" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G175" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C176" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D176" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E176" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F176" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G176" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G177" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" t="s">
+        <v>465</v>
+      </c>
+      <c r="E179" t="s">
+        <v>465</v>
+      </c>
+      <c r="F179" t="s">
+        <v>465</v>
+      </c>
+      <c r="G179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C179" t="s">
-        <v>468</v>
-      </c>
-      <c r="D179" t="s">
-        <v>468</v>
-      </c>
-      <c r="E179" t="s">
-        <v>468</v>
-      </c>
-      <c r="F179" t="s">
-        <v>468</v>
-      </c>
-      <c r="G179" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="B180" s="2" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
       <c r="C180" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D180" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E180" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F180" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G180" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C181" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D181" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E181" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F181" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G181" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C183" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D183" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E183" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F183" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G183" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C184" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D184" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E184" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F184" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G184" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C185" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D185" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E185" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F185" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G185" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C186" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D186" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E186" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F186" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G186" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C187" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D187" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E187" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F187" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G187" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C188" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D188" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E188" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F188" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G188" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" t="s">
+        <v>465</v>
+      </c>
+      <c r="D189" t="s">
+        <v>465</v>
+      </c>
+      <c r="E189" t="s">
+        <v>465</v>
+      </c>
+      <c r="F189" t="s">
+        <v>465</v>
+      </c>
+      <c r="G189" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C189" t="s">
-        <v>468</v>
-      </c>
-      <c r="D189" t="s">
-        <v>468</v>
-      </c>
-      <c r="E189" t="s">
-        <v>468</v>
-      </c>
-      <c r="F189" t="s">
-        <v>468</v>
-      </c>
-      <c r="G189" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="B190" s="1" t="s">
-        <v>368</v>
+        <v>500</v>
       </c>
       <c r="C190" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D190" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E190" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F190" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G190" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C191" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D191" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E191" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F191" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G191" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G192" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D194" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E194" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F194" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G194" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G195" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D196" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E196" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F196" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G196" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G197" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C200" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D200" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E200" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F200" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G200" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D201" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E201" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F201" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G201" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D202" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E202" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F202" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G202" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C204" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D204" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E204" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F204" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G204" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C205" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D205" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E205" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F205" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G205" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C206" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D206" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E206" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F206" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G206" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C207" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D207" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E207" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F207" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G207" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C208" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D208" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E208" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F208" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G208" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D209" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E209" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F209" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G209" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C210" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D210" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E210" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F210" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G210" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C211" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D211" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E211" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F211" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G211" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G212" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G213" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G214" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C215" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D215" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E215" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F215" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G215" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C216" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D216" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E216" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F216" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G216" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C217" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D217" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E217" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F217" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G217" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C218" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D218" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E218" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F218" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G218" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C219" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D219" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E219" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F219" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G219" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C220" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D220" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E220" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F220" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G220" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C221" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D221" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E221" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F221" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G221" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G224" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C225" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D225" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E225" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F225" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G225" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C226" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D226" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F226" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G226" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C227" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D227" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E227" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F227" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G227" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C228" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D228" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E228" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F228" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G228" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G229" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C230" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D230" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E230" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F230" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G230" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C231" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D231" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E231" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F231" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G231" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C232" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D232" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E232" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F232" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G232" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G233" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G234" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G235" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G239" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>473</v>
+      </c>
+      <c r="B240" t="s">
+        <v>474</v>
+      </c>
+      <c r="C240" t="s">
+        <v>465</v>
+      </c>
+      <c r="D240" t="s">
+        <v>465</v>
+      </c>
+      <c r="E240" t="s">
+        <v>456</v>
+      </c>
+      <c r="F240" t="s">
+        <v>465</v>
+      </c>
+      <c r="G240" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B240" t="s">
-        <v>477</v>
-      </c>
-      <c r="C240" t="s">
-        <v>468</v>
-      </c>
-      <c r="D240" t="s">
-        <v>468</v>
-      </c>
-      <c r="E240" t="s">
-        <v>459</v>
-      </c>
-      <c r="F240" t="s">
-        <v>468</v>
-      </c>
-      <c r="G240" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
+      <c r="C241" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
+      <c r="B243" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="B244" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>482</v>
+      </c>
+      <c r="B245" t="s">
+        <v>472</v>
+      </c>
+      <c r="C245" t="s">
+        <v>465</v>
+      </c>
+      <c r="D245" t="s">
+        <v>465</v>
+      </c>
+      <c r="E245" t="s">
+        <v>456</v>
+      </c>
+      <c r="F245" t="s">
+        <v>465</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
+      <c r="B246" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B247" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B245" t="s">
-        <v>475</v>
-      </c>
-      <c r="C245" t="s">
-        <v>468</v>
-      </c>
-      <c r="D245" t="s">
-        <v>468</v>
-      </c>
-      <c r="E245" t="s">
-        <v>459</v>
-      </c>
-      <c r="F245" t="s">
-        <v>468</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
+      <c r="B248" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
+      <c r="B249" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>487</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
+      <c r="B250" t="s">
+        <v>472</v>
+      </c>
+      <c r="C250" t="s">
+        <v>465</v>
+      </c>
+      <c r="D250" t="s">
+        <v>465</v>
+      </c>
+      <c r="E250" t="s">
+        <v>456</v>
+      </c>
+      <c r="F250" t="s">
+        <v>465</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
+      <c r="B251" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B252" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B250" t="s">
-        <v>475</v>
-      </c>
-      <c r="C250" t="s">
-        <v>468</v>
-      </c>
-      <c r="D250" t="s">
-        <v>468</v>
-      </c>
-      <c r="E250" t="s">
-        <v>459</v>
-      </c>
-      <c r="F250" t="s">
-        <v>468</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="C252" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="B253" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7970,7 +7970,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G254" xr:uid="{90F610DA-8A3C-41D3-A04E-01BF26B8D586}">
-    <filterColumn colId="5">
+    <filterColumn colId="4">
       <filters>
         <filter val="Y"/>
       </filters>

--- a/data/ICAOPrefix.xlsx
+++ b/data/ICAOPrefix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\FuelCost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71332B-316C-43F6-80DB-7CEAE318F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054EBFA-2B44-41CC-BF82-6A352669E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1815" windowWidth="28800" windowHeight="15555" xr2:uid="{84504369-7A79-4CE5-B3C2-F56AC7F0264A}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{84504369-7A79-4CE5-B3C2-F56AC7F0264A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
     <t>Canary Islands</t>
   </si>
   <si>
-    <t>Guadeloupe, Martinique, Saint Barthélemy, Saint Martin</t>
+    <t>West Indies</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,7 +6464,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>365</v>
       </c>

--- a/data/ICAOPrefix.xlsx
+++ b/data/ICAOPrefix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\FuelCost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054EBFA-2B44-41CC-BF82-6A352669E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F1672-C83F-4F62-8DFE-750CD5D035E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{84504369-7A79-4CE5-B3C2-F56AC7F0264A}"/>
+    <workbookView xWindow="0" yWindow="5595" windowWidth="28800" windowHeight="15555" xr2:uid="{84504369-7A79-4CE5-B3C2-F56AC7F0264A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1720,9 +1720,6 @@
     <t>France</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain </t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -1739,6 +1736,9 @@
   </si>
   <si>
     <t>West Indies</t>
+  </si>
+  <si>
+    <t>Spain</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B259" sqref="B259"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2232,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>179</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>158</v>
       </c>
@@ -2600,12 +2600,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" t="s">
         <v>465</v>
@@ -2623,7 +2623,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>171</v>
       </c>
@@ -2646,12 +2646,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
         <v>456</v>
@@ -2669,7 +2669,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>163</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>164</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>166</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3428,12 +3428,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C58" t="s">
         <v>465</v>
@@ -4003,7 +4003,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>42</v>
       </c>
@@ -4026,12 +4026,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C84" t="s">
         <v>456</v>
@@ -4049,7 +4049,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>56</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>40</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>47</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>49</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>181</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>200</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>169</v>
       </c>
@@ -4371,12 +4371,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C99" t="s">
         <v>456</v>
@@ -4394,7 +4394,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>51</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>186</v>
       </c>
@@ -6234,12 +6234,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C180" t="s">
         <v>465</v>
@@ -6464,12 +6464,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C190" t="s">
         <v>465</v>
@@ -7614,7 +7614,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>473</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>477</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>478</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>480</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>481</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>482</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>483</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>484</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>485</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>486</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>487</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>488</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>489</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>491</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>487</v>
       </c>
@@ -7970,7 +7970,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G254" xr:uid="{90F610DA-8A3C-41D3-A04E-01BF26B8D586}">
-    <filterColumn colId="4">
+    <filterColumn colId="5">
       <filters>
         <filter val="Y"/>
       </filters>
